--- a/testdata/FCfiles/stg/Overages/SecondaryInvoiceTemplate.xlsx
+++ b/testdata/FCfiles/stg/Overages/SecondaryInvoiceTemplate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>FC Order ID</t>
   </si>
@@ -198,6 +198,18 @@
   </si>
   <si>
     <t>200.81</t>
+  </si>
+  <si>
+    <t>58571703</t>
+  </si>
+  <si>
+    <t>FCT942112781459521536</t>
+  </si>
+  <si>
+    <t>58571703+1</t>
+  </si>
+  <si>
+    <t>240.39</t>
   </si>
 </sst>
 </file>
@@ -245,7 +257,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="64">
+  <fills count="72">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,8 +576,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="61">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -813,13 +865,41 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="164"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -879,7 +959,11 @@
     <xf applyBorder="true" applyFill="true" borderId="54" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="56" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="58" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="60" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="60" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="62" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="64" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="66" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="71" borderId="68" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="3" name="Comma" xfId="1"/>
@@ -1356,14 +1440,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
-        <v>55</v>
+      <c r="A2" s="42" t="s">
+        <v>59</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>56</v>
+      <c r="C2" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -1371,8 +1455,8 @@
       <c r="E2">
         <v>5679</v>
       </c>
-      <c r="F2" s="41" t="s">
-        <v>58</v>
+      <c r="F2" s="45" t="s">
+        <v>62</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -1380,8 +1464,8 @@
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="40" t="s">
-        <v>57</v>
+      <c r="I2" s="44" t="s">
+        <v>61</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>

--- a/testdata/FCfiles/stg/Overages/SecondaryInvoiceTemplate.xlsx
+++ b/testdata/FCfiles/stg/Overages/SecondaryInvoiceTemplate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>FC Order ID</t>
   </si>
@@ -210,6 +210,18 @@
   </si>
   <si>
     <t>240.39</t>
+  </si>
+  <si>
+    <t>58572102</t>
+  </si>
+  <si>
+    <t>FCT943034220790415360</t>
+  </si>
+  <si>
+    <t>58572102+1</t>
+  </si>
+  <si>
+    <t>67.81</t>
   </si>
 </sst>
 </file>
@@ -257,7 +269,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="72">
+  <fills count="80">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,8 +628,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="69">
+  <borders count="77">
     <border>
       <left/>
       <right/>
@@ -893,13 +945,41 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="164"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -963,7 +1043,11 @@
     <xf applyBorder="true" applyFill="true" borderId="62" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="64" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="66" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="68" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="68" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="70" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="72" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="74" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="79" borderId="76" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="3" name="Comma" xfId="1"/>
@@ -1440,14 +1524,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
-        <v>59</v>
+      <c r="A2" s="46" t="s">
+        <v>63</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>60</v>
+      <c r="C2" s="47" t="s">
+        <v>64</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -1455,8 +1539,8 @@
       <c r="E2">
         <v>5679</v>
       </c>
-      <c r="F2" s="45" t="s">
-        <v>62</v>
+      <c r="F2" s="49" t="s">
+        <v>66</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -1464,8 +1548,8 @@
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="44" t="s">
-        <v>61</v>
+      <c r="I2" s="48" t="s">
+        <v>65</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>

--- a/testdata/FCfiles/stg/Overages/SecondaryInvoiceTemplate.xlsx
+++ b/testdata/FCfiles/stg/Overages/SecondaryInvoiceTemplate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
   <si>
     <t>FC Order ID</t>
   </si>
@@ -222,6 +222,114 @@
   </si>
   <si>
     <t>67.81</t>
+  </si>
+  <si>
+    <t>59069890</t>
+  </si>
+  <si>
+    <t>FCTEST1004426</t>
+  </si>
+  <si>
+    <t>59069890+1</t>
+  </si>
+  <si>
+    <t>33.69</t>
+  </si>
+  <si>
+    <t>59069894</t>
+  </si>
+  <si>
+    <t>FCTEST1004427</t>
+  </si>
+  <si>
+    <t>59069894+1</t>
+  </si>
+  <si>
+    <t>327.15</t>
+  </si>
+  <si>
+    <t>59069895</t>
+  </si>
+  <si>
+    <t>FCTEST1004428</t>
+  </si>
+  <si>
+    <t>59069895+1</t>
+  </si>
+  <si>
+    <t>731.7</t>
+  </si>
+  <si>
+    <t>59069896</t>
+  </si>
+  <si>
+    <t>FCTEST1004429</t>
+  </si>
+  <si>
+    <t>59069896+1</t>
+  </si>
+  <si>
+    <t>96.73</t>
+  </si>
+  <si>
+    <t>59069900</t>
+  </si>
+  <si>
+    <t>FCTEST1004430</t>
+  </si>
+  <si>
+    <t>59069900+1</t>
+  </si>
+  <si>
+    <t>272.34</t>
+  </si>
+  <si>
+    <t>59069901</t>
+  </si>
+  <si>
+    <t>FCTEST1004431</t>
+  </si>
+  <si>
+    <t>59069901+1</t>
+  </si>
+  <si>
+    <t>67.92</t>
+  </si>
+  <si>
+    <t>59069932</t>
+  </si>
+  <si>
+    <t>FCTEST1004434</t>
+  </si>
+  <si>
+    <t>59069932+1</t>
+  </si>
+  <si>
+    <t>779.29</t>
+  </si>
+  <si>
+    <t>59069938</t>
+  </si>
+  <si>
+    <t>FCTEST1004435</t>
+  </si>
+  <si>
+    <t>59069938+1</t>
+  </si>
+  <si>
+    <t>225.52</t>
+  </si>
+  <si>
+    <t>59069939</t>
+  </si>
+  <si>
+    <t>FCTEST1004436</t>
+  </si>
+  <si>
+    <t>59069939+1</t>
+  </si>
+  <si>
+    <t>764.18</t>
   </si>
 </sst>
 </file>
@@ -269,7 +377,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="80">
+  <fills count="152">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -668,8 +776,368 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="77">
+  <borders count="149">
     <border>
       <left/>
       <right/>
@@ -973,13 +1441,265 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="164"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="86">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1047,7 +1767,43 @@
     <xf applyBorder="true" applyFill="true" borderId="70" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="72" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="74" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="79" borderId="76" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="76" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="78" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="80" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="82" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="84" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="86" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="88" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="90" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="92" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="94" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="96" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="98" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="100" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="102" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="104" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="106" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="108" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="110" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="112" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="114" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="116" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="118" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="120" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="122" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="124" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="126" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="128" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="130" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="132" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="134" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="136" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="138" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="140" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="142" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="144" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="146" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="151" borderId="148" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="3" name="Comma" xfId="1"/>
@@ -1478,7 +2234,7 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.53515625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="24.36328125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.25390625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="19.88671875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="25.0" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="20.234375" collapsed="true"/>
@@ -1524,14 +2280,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
-        <v>63</v>
+      <c r="A2" s="82" t="s">
+        <v>99</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="47" t="s">
-        <v>64</v>
+      <c r="C2" s="83" t="s">
+        <v>100</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -1539,8 +2295,8 @@
       <c r="E2">
         <v>5679</v>
       </c>
-      <c r="F2" s="49" t="s">
-        <v>66</v>
+      <c r="F2" s="85" t="s">
+        <v>102</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -1548,8 +2304,8 @@
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="48" t="s">
-        <v>65</v>
+      <c r="I2" s="84" t="s">
+        <v>101</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>

--- a/testdata/FCfiles/stg/Overages/SecondaryInvoiceTemplate.xlsx
+++ b/testdata/FCfiles/stg/Overages/SecondaryInvoiceTemplate.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\testdata\FCfiles\stg\Overages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5760B5-AB91-42C5-94B2-D2095269CC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{AB5760B5-AB91-42C5-94B2-D2095269CC8D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sec invoice Master" sheetId="1" r:id="rId1"/>
-    <sheet name="Validations" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sec invoice Master" r:id="rId1" sheetId="1"/>
+    <sheet name="Validations" r:id="rId2" sheetId="2" state="hidden"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>FC Order ID</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>785.40</t>
+  </si>
+  <si>
+    <t>59070344</t>
+  </si>
+  <si>
+    <t>999U670530</t>
+  </si>
+  <si>
+    <t>59070344+1</t>
+  </si>
+  <si>
+    <t>131.23</t>
   </si>
 </sst>
 </file>
@@ -161,7 +173,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,8 +212,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -253,49 +305,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="164"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="18">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="2" numFmtId="14" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="3" fontId="2" numFmtId="165" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="7" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="8" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{07936615-26A1-47FD-9E8C-D425AE7EEE54}"/>
   </cellStyles>
   <dxfs count="4">
@@ -335,7 +419,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -420,10 +504,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -458,7 +542,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -510,7 +594,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -621,21 +705,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -652,7 +736,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -704,32 +788,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="98" zoomScaleNormal="98">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="28" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="28" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.53515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.484375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.234375" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.796875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -768,14 +852,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>27</v>
+      <c r="A2" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>28</v>
+      <c r="C2" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -783,8 +867,8 @@
       <c r="E2">
         <v>5679</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>30</v>
+      <c r="F2" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -792,8 +876,8 @@
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>29</v>
+      <c r="I2" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
@@ -805,27 +889,27 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule dxfId="3" priority="2" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule dxfId="2" priority="3" type="duplicateValues"/>
+    <cfRule dxfId="1" priority="4" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule dxfId="0" priority="5" type="duplicateValues"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="H1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Validations!$A$1:$A$12</xm:f>
           </x14:formula1>
@@ -841,19 +925,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="15.6" r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -914,8 +998,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>

--- a/testdata/FCfiles/stg/Overages/SecondaryInvoiceTemplate.xlsx
+++ b/testdata/FCfiles/stg/Overages/SecondaryInvoiceTemplate.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\testdata\FCfiles\stg\Overages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qualitesoft\testdata\FCfiles\stg\Overages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{AB5760B5-AB91-42C5-94B2-D2095269CC8D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CE761D-1BA2-41DA-AF9C-B3E4EFF42BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sec invoice Master" r:id="rId1" sheetId="1"/>
-    <sheet name="Validations" r:id="rId2" sheetId="2" state="hidden"/>
+    <sheet name="Sec invoice Master" sheetId="1" r:id="rId1"/>
+    <sheet name="Validations" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>FC Order ID</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Service Upgrade</t>
   </si>
   <si>
-    <t>FC Test Carrier</t>
-  </si>
-  <si>
     <t>Assembly</t>
   </si>
   <si>
@@ -104,28 +101,19 @@
     <t>07/07/2021</t>
   </si>
   <si>
-    <t>59070322</t>
-  </si>
-  <si>
-    <t>999U668528</t>
-  </si>
-  <si>
-    <t>59070322+1</t>
-  </si>
-  <si>
-    <t>785.40</t>
-  </si>
-  <si>
-    <t>59070344</t>
-  </si>
-  <si>
-    <t>999U670530</t>
-  </si>
-  <si>
-    <t>59070344+1</t>
-  </si>
-  <si>
-    <t>131.23</t>
+    <t>59071590</t>
+  </si>
+  <si>
+    <t>999U684759</t>
+  </si>
+  <si>
+    <t>59071590+1</t>
+  </si>
+  <si>
+    <t>457.13</t>
+  </si>
+  <si>
+    <t>FragilePAK</t>
   </si>
 </sst>
 </file>
@@ -173,7 +161,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,48 +200,8 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -305,81 +253,49 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="2" numFmtId="14" xfId="0">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="3" fontId="2" numFmtId="165" xfId="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="3" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="4" fillId="7" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="8" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{07936615-26A1-47FD-9E8C-D425AE7EEE54}"/>
   </cellStyles>
   <dxfs count="4">
@@ -419,7 +335,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -504,10 +420,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -542,7 +458,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -594,7 +510,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -705,21 +621,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -736,7 +652,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -788,40 +704,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="98" zoomScaleNormal="98">
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.53515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.484375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="20.234375" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.796875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="28" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -851,36 +767,36 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>31</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>5679</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>34</v>
+      <c r="F2" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>33</v>
+      <c r="I2" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2">
         <v>222</v>
@@ -889,27 +805,27 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="3" priority="2" type="duplicateValues"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="2" priority="3" type="duplicateValues"/>
-    <cfRule dxfId="1" priority="4" type="duplicateValues"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="0" priority="5" type="duplicateValues"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="H1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Validations!$A$1:$A$12</xm:f>
           </x14:formula1>
@@ -925,81 +841,81 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="1" max="1" width="25.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.6" r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>

--- a/testdata/FCfiles/stg/Overages/SecondaryInvoiceTemplate.xlsx
+++ b/testdata/FCfiles/stg/Overages/SecondaryInvoiceTemplate.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qualitesoft\testdata\FCfiles\stg\Overages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CE761D-1BA2-41DA-AF9C-B3E4EFF42BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{A0CE761D-1BA2-41DA-AF9C-B3E4EFF42BB2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView tabRatio="500" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sec invoice Master" sheetId="1" r:id="rId1"/>
-    <sheet name="Validations" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sec invoice Master" r:id="rId1" sheetId="1"/>
+    <sheet name="Validations" r:id="rId2" sheetId="2" state="hidden"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>FC Order ID</t>
   </si>
@@ -114,6 +114,54 @@
   </si>
   <si>
     <t>FragilePAK</t>
+  </si>
+  <si>
+    <t>59071919</t>
+  </si>
+  <si>
+    <t>999U694723</t>
+  </si>
+  <si>
+    <t>59071919+1</t>
+  </si>
+  <si>
+    <t>913.66</t>
+  </si>
+  <si>
+    <t>59071926</t>
+  </si>
+  <si>
+    <t>999U694829</t>
+  </si>
+  <si>
+    <t>59071926+1</t>
+  </si>
+  <si>
+    <t>645.66</t>
+  </si>
+  <si>
+    <t>59071939</t>
+  </si>
+  <si>
+    <t>999U694889</t>
+  </si>
+  <si>
+    <t>59071939+1</t>
+  </si>
+  <si>
+    <t>364.1</t>
+  </si>
+  <si>
+    <t>59071955</t>
+  </si>
+  <si>
+    <t>999U694909</t>
+  </si>
+  <si>
+    <t>59071955+1</t>
+  </si>
+  <si>
+    <t>157.88</t>
   </si>
 </sst>
 </file>
@@ -161,7 +209,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,8 +248,168 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -253,49 +461,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="164"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="30">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="2" numFmtId="14" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="3" fontId="2" numFmtId="165" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="8" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="14" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="36" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{07936615-26A1-47FD-9E8C-D425AE7EEE54}"/>
   </cellStyles>
   <dxfs count="4">
@@ -335,7 +671,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -420,10 +756,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -458,7 +794,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -510,7 +846,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -621,21 +957,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -652,7 +988,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -704,32 +1040,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="98" zoomScaleNormal="98">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="28" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="28" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.53515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.484375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.234375" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.796875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -768,14 +1104,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>26</v>
+      <c r="A2" s="26" t="s">
+        <v>43</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>27</v>
+      <c r="C2" s="27" t="s">
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -783,8 +1119,8 @@
       <c r="E2">
         <v>5679</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>29</v>
+      <c r="F2" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
@@ -792,8 +1128,8 @@
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>28</v>
+      <c r="I2" s="28" t="s">
+        <v>45</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>
@@ -805,27 +1141,27 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule dxfId="3" priority="2" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule dxfId="2" priority="3" type="duplicateValues"/>
+    <cfRule dxfId="1" priority="4" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule dxfId="0" priority="5" type="duplicateValues"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="H1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Validations!$A$1:$A$12</xm:f>
           </x14:formula1>
@@ -841,19 +1177,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15.6" r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -914,8 +1250,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>

--- a/testdata/FCfiles/stg/Overages/SecondaryInvoiceTemplate.xlsx
+++ b/testdata/FCfiles/stg/Overages/SecondaryInvoiceTemplate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>FC Order ID</t>
   </si>
@@ -162,6 +162,18 @@
   </si>
   <si>
     <t>157.88</t>
+  </si>
+  <si>
+    <t>59075574</t>
+  </si>
+  <si>
+    <t>999U748301</t>
+  </si>
+  <si>
+    <t>59075574+1</t>
+  </si>
+  <si>
+    <t>649.65</t>
   </si>
 </sst>
 </file>
@@ -209,7 +221,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,8 +420,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -573,13 +625,41 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="164"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -627,7 +707,11 @@
     <xf applyBorder="true" applyFill="true" borderId="30" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="32" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="34" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="36" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="40" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="42" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="44" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="3" name="Comma" xfId="1"/>
@@ -1104,14 +1188,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>43</v>
+      <c r="A2" s="30" t="s">
+        <v>47</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>44</v>
+      <c r="C2" s="31" t="s">
+        <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -1119,8 +1203,8 @@
       <c r="E2">
         <v>5679</v>
       </c>
-      <c r="F2" s="29" t="s">
-        <v>46</v>
+      <c r="F2" s="33" t="s">
+        <v>50</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
@@ -1128,8 +1212,8 @@
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="28" t="s">
-        <v>45</v>
+      <c r="I2" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>

--- a/testdata/FCfiles/stg/Overages/SecondaryInvoiceTemplate.xlsx
+++ b/testdata/FCfiles/stg/Overages/SecondaryInvoiceTemplate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>FC Order ID</t>
   </si>
@@ -174,6 +174,30 @@
   </si>
   <si>
     <t>649.65</t>
+  </si>
+  <si>
+    <t>59082131</t>
+  </si>
+  <si>
+    <t>999U813862</t>
+  </si>
+  <si>
+    <t>59082131+1</t>
+  </si>
+  <si>
+    <t>727.63</t>
+  </si>
+  <si>
+    <t>59082134</t>
+  </si>
+  <si>
+    <t>999U814054</t>
+  </si>
+  <si>
+    <t>59082134+1</t>
+  </si>
+  <si>
+    <t>133.2</t>
   </si>
 </sst>
 </file>
@@ -221,7 +245,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="64">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,8 +484,88 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="45">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -653,13 +757,69 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="164"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -711,7 +871,15 @@
     <xf applyBorder="true" applyFill="true" borderId="38" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="40" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="42" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="44" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="46" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="48" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="50" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="52" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="54" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="56" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="58" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="63" borderId="60" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="3" name="Comma" xfId="1"/>
@@ -1188,14 +1356,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>47</v>
+      <c r="A2" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>48</v>
+      <c r="C2" s="39" t="s">
+        <v>56</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -1203,8 +1371,8 @@
       <c r="E2">
         <v>5679</v>
       </c>
-      <c r="F2" s="33" t="s">
-        <v>50</v>
+      <c r="F2" s="41" t="s">
+        <v>58</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
@@ -1212,8 +1380,8 @@
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="32" t="s">
-        <v>49</v>
+      <c r="I2" s="40" t="s">
+        <v>57</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>

--- a/testdata/FCfiles/stg/Overages/SecondaryInvoiceTemplate.xlsx
+++ b/testdata/FCfiles/stg/Overages/SecondaryInvoiceTemplate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>FC Order ID</t>
   </si>
@@ -198,6 +198,42 @@
   </si>
   <si>
     <t>133.2</t>
+  </si>
+  <si>
+    <t>59086118</t>
+  </si>
+  <si>
+    <t>171U910572</t>
+  </si>
+  <si>
+    <t>59086118+1</t>
+  </si>
+  <si>
+    <t>198.58</t>
+  </si>
+  <si>
+    <t>59086147</t>
+  </si>
+  <si>
+    <t>171U910861</t>
+  </si>
+  <si>
+    <t>59086147+1</t>
+  </si>
+  <si>
+    <t>801.4</t>
+  </si>
+  <si>
+    <t>59086148</t>
+  </si>
+  <si>
+    <t>171U911059</t>
+  </si>
+  <si>
+    <t>59086148+1</t>
+  </si>
+  <si>
+    <t>518.44</t>
   </si>
 </sst>
 </file>
@@ -245,7 +281,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="64">
+  <fills count="88">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,8 +600,128 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="61">
+  <borders count="85">
     <border>
       <left/>
       <right/>
@@ -813,13 +969,97 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="164"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -879,7 +1119,19 @@
     <xf applyBorder="true" applyFill="true" borderId="54" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="56" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="58" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="60" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="60" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="62" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="64" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="66" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="68" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="70" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="72" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="74" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="76" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="78" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="80" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="82" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="87" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="3" name="Comma" xfId="1"/>
@@ -1356,14 +1608,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
-        <v>55</v>
+      <c r="A2" s="50" t="s">
+        <v>67</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="39" t="s">
-        <v>56</v>
+      <c r="C2" s="51" t="s">
+        <v>68</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -1371,8 +1623,8 @@
       <c r="E2">
         <v>5679</v>
       </c>
-      <c r="F2" s="41" t="s">
-        <v>58</v>
+      <c r="F2" s="53" t="s">
+        <v>70</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
@@ -1380,8 +1632,8 @@
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="40" t="s">
-        <v>57</v>
+      <c r="I2" s="52" t="s">
+        <v>69</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>

--- a/testdata/FCfiles/stg/Overages/SecondaryInvoiceTemplate.xlsx
+++ b/testdata/FCfiles/stg/Overages/SecondaryInvoiceTemplate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t>FC Order ID</t>
   </si>
@@ -234,6 +234,30 @@
   </si>
   <si>
     <t>518.44</t>
+  </si>
+  <si>
+    <t>59086480</t>
+  </si>
+  <si>
+    <t>999U930762</t>
+  </si>
+  <si>
+    <t>59086480+1</t>
+  </si>
+  <si>
+    <t>9.67</t>
+  </si>
+  <si>
+    <t>59086481</t>
+  </si>
+  <si>
+    <t>999U930797</t>
+  </si>
+  <si>
+    <t>59086481+1</t>
+  </si>
+  <si>
+    <t>535.97</t>
   </si>
 </sst>
 </file>
@@ -281,7 +305,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="88">
+  <fills count="104">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -720,8 +744,88 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="85">
+  <borders count="101">
     <border>
       <left/>
       <right/>
@@ -1053,13 +1157,69 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="164"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1131,7 +1291,15 @@
     <xf applyBorder="true" applyFill="true" borderId="78" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="80" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="82" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="87" borderId="84" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="84" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="86" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="88" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="90" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="92" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="94" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="96" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="98" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="100" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="3" name="Comma" xfId="1"/>
@@ -1608,14 +1776,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
-        <v>67</v>
+      <c r="A2" s="58" t="s">
+        <v>75</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="51" t="s">
-        <v>68</v>
+      <c r="C2" s="59" t="s">
+        <v>76</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -1623,8 +1791,8 @@
       <c r="E2">
         <v>5679</v>
       </c>
-      <c r="F2" s="53" t="s">
-        <v>70</v>
+      <c r="F2" s="61" t="s">
+        <v>78</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
@@ -1632,8 +1800,8 @@
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="52" t="s">
-        <v>69</v>
+      <c r="I2" s="60" t="s">
+        <v>77</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>

--- a/testdata/FCfiles/stg/Overages/SecondaryInvoiceTemplate.xlsx
+++ b/testdata/FCfiles/stg/Overages/SecondaryInvoiceTemplate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="119">
   <si>
     <t>FC Order ID</t>
   </si>
@@ -258,6 +258,126 @@
   </si>
   <si>
     <t>535.97</t>
+  </si>
+  <si>
+    <t>59088085</t>
+  </si>
+  <si>
+    <t>999U967432</t>
+  </si>
+  <si>
+    <t>59088085+1</t>
+  </si>
+  <si>
+    <t>235.52</t>
+  </si>
+  <si>
+    <t>59090304</t>
+  </si>
+  <si>
+    <t>CEV1073207</t>
+  </si>
+  <si>
+    <t>59090304+1</t>
+  </si>
+  <si>
+    <t>274.21</t>
+  </si>
+  <si>
+    <t>59090305</t>
+  </si>
+  <si>
+    <t>CEV1073208</t>
+  </si>
+  <si>
+    <t>59090305+1</t>
+  </si>
+  <si>
+    <t>715.8</t>
+  </si>
+  <si>
+    <t>59090308</t>
+  </si>
+  <si>
+    <t>CEV1073209</t>
+  </si>
+  <si>
+    <t>59090308+1</t>
+  </si>
+  <si>
+    <t>45.54</t>
+  </si>
+  <si>
+    <t>59090309</t>
+  </si>
+  <si>
+    <t>CEV1073210</t>
+  </si>
+  <si>
+    <t>59090309+1</t>
+  </si>
+  <si>
+    <t>491.7</t>
+  </si>
+  <si>
+    <t>59090310</t>
+  </si>
+  <si>
+    <t>CEV1073211</t>
+  </si>
+  <si>
+    <t>59090310+1</t>
+  </si>
+  <si>
+    <t>713.46</t>
+  </si>
+  <si>
+    <t>59090311</t>
+  </si>
+  <si>
+    <t>CEV1073212</t>
+  </si>
+  <si>
+    <t>59090311+1</t>
+  </si>
+  <si>
+    <t>179.16</t>
+  </si>
+  <si>
+    <t>59090312</t>
+  </si>
+  <si>
+    <t>CEV1073213</t>
+  </si>
+  <si>
+    <t>59090312+1</t>
+  </si>
+  <si>
+    <t>167.98</t>
+  </si>
+  <si>
+    <t>59090384</t>
+  </si>
+  <si>
+    <t>CEV1073216</t>
+  </si>
+  <si>
+    <t>59090384+1</t>
+  </si>
+  <si>
+    <t>400.48</t>
+  </si>
+  <si>
+    <t>59090385</t>
+  </si>
+  <si>
+    <t>CEV1073217</t>
+  </si>
+  <si>
+    <t>59090385+1</t>
+  </si>
+  <si>
+    <t>520.9</t>
   </si>
 </sst>
 </file>
@@ -305,7 +425,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="104">
+  <fills count="184">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -824,8 +944,408 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="101">
+  <borders count="181">
     <border>
       <left/>
       <right/>
@@ -1213,13 +1733,293 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="164"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="102">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1299,7 +2099,47 @@
     <xf applyBorder="true" applyFill="true" borderId="94" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="96" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="98" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="103" borderId="100" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="100" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="102" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="104" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="106" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="108" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="110" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="112" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="114" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="116" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="118" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="120" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="122" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="124" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="126" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="128" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="130" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="132" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="134" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="136" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="138" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="140" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="142" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="144" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="146" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="148" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="150" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="152" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="154" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="156" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="158" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="160" fillId="163" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="162" fillId="165" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="164" fillId="167" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="166" fillId="169" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="168" fillId="171" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="170" fillId="173" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="172" fillId="175" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="174" fillId="177" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="176" fillId="179" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="178" fillId="181" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="183" borderId="180" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="3" name="Comma" xfId="1"/>
@@ -1730,7 +2570,7 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.53515625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.484375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.3359375" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="19.88671875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="25.0" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="20.234375" collapsed="true"/>
@@ -1776,14 +2616,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
-        <v>75</v>
+      <c r="A2" s="98" t="s">
+        <v>115</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="59" t="s">
-        <v>76</v>
+      <c r="C2" s="99" t="s">
+        <v>116</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -1791,8 +2631,8 @@
       <c r="E2">
         <v>5679</v>
       </c>
-      <c r="F2" s="61" t="s">
-        <v>78</v>
+      <c r="F2" s="101" t="s">
+        <v>118</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
@@ -1800,8 +2640,8 @@
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="60" t="s">
-        <v>77</v>
+      <c r="I2" s="100" t="s">
+        <v>117</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>
